--- a/va_facility_data_2025-02-20/Beaver Dam VA Clinic - Facility Data.xlsx"; filename*=UTF-8''Beaver%20Dam%20VA%20Clinic%20-%20Facility%20Data.xlsx
+++ b/va_facility_data_2025-02-20/Beaver Dam VA Clinic - Facility Data.xlsx"; filename*=UTF-8''Beaver%20Dam%20VA%20Clinic%20-%20Facility%20Data.xlsx
@@ -2,9 +2,9 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <x:workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheets>
-    <x:sheet name="Wait Times" sheetId="1" r:id="R298c73106b6b47088106290d68cc2939"/>
-    <x:sheet name="Satisfaction with Care" sheetId="2" r:id="R3e851922ff5548babbd48431b0ecbb21"/>
-    <x:sheet name="Outpatient Score" sheetId="3" r:id="Re4c6dace0c134452b373ddc068c5898d"/>
+    <x:sheet name="Wait Times" sheetId="1" r:id="R080e6984d4b3425f985e3ab301213c08"/>
+    <x:sheet name="Satisfaction with Care" sheetId="2" r:id="R22f3fc71e46d4f11a03fd54adbcb84b0"/>
+    <x:sheet name="Outpatient Score" sheetId="3" r:id="R61693406d3d94a379d0ff4a806d8243a"/>
   </x:sheets>
 </x:workbook>
 </file>
